--- a/Task/Проверки 1.1 в.6.xlsx
+++ b/Task/Проверки 1.1 в.6.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'форма 1.1'!$A$1:$H$63</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
   <si>
     <t>Графа</t>
   </si>
@@ -865,6 +865,589 @@
     </r>
   </si>
   <si>
+    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
+  </si>
+  <si>
+    <t>Код ОКПО НЕ отчитывающейся организации</t>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>выбор из ОКСМ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо выбрать краткое наименование государства из ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо добавить примечание»</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">в графе 15 указывается код ОКПО отчитывающейся организации </t>
+  </si>
+  <si>
+    <t>"Уточните правообладателя ЗРИ"</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt;10Е+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Бк</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46,47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО контрагента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 54,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 63, 64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ц</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 97, 98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, 2, 3, 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в графе 14</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать код ОКПО </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В случае, если зарядка/разрядка осуществлялась силами </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации, следует использовать код операции 53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <t>"прим.". Обязательно примечание к ячейке</t>
+  </si>
+  <si>
+    <t>Из возможных значений. При коде операции 41 должно быть 1. При 66 должно быть 13. При 81 и 85 должно быть 3.</t>
+  </si>
+  <si>
     <r>
       <t>Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46,</t>
     </r>
@@ -887,7 +1470,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76,</t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76,</t>
     </r>
     <r>
       <rPr>
@@ -902,28 +1506,35 @@
     </r>
   </si>
   <si>
-    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
-  </si>
-  <si>
-    <t>Код ОКПО НЕ отчитывающейся организации</t>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    <r>
+      <t xml:space="preserve">81, 88, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>82, 87</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11, 12, 15, 28, 38, 41, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
     </r>
     <r>
       <rPr>
@@ -933,121 +1544,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>выбор из ОКСМ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо выбрать краткое наименование государства из ОКСМ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо добавить примечание»</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При выбранном коде операции траспортирование не производится</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
-    </r>
-  </si>
-  <si>
-    <t>11, 12, 15, 28, 38, 41, 48, 63, 64, 65, 73, 85, 81, 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в графе 15 указывается код ОКПО отчитывающейся организации </t>
-  </si>
-  <si>
-    <t>"Уточните правообладателя ЗРИ"</t>
-  </si>
-  <si>
-    <r>
-      <t>&gt;10Е+</t>
+      <t>, 63, 64, 65, 73, 85, 81, 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
     </r>
     <r>
       <rPr>
@@ -1058,60 +1560,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Бк</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+      <t xml:space="preserve">, 54, </t>
     </r>
     <r>
       <rPr>
@@ -1122,386 +1571,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>46,47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО контрагента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 54,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 63, 64, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 54</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ц</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 97, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1, 2, 3, 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в графе 14</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 19 необходимо указать код ОКПО </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">В случае, если зарядка/разрядка осуществлялась силами </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> организации, следует использовать код операции 53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <t>"прим.". Обязательно примечание к ячейке</t>
-  </si>
-  <si>
-    <t>Из возможных значений. При коде операции 41 должно быть 1. При 66 должно быть 13. При 81 и 85 должно быть 3.</t>
+      <t>63, 64</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2054,8 +2125,8 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2186,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2130,7 +2201,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -2313,7 +2384,7 @@
         <v>122</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2335,7 +2406,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -2416,8 +2487,8 @@
         <v>5</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>81.88</v>
+      <c r="E16" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
@@ -2459,13 +2530,13 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2711,7 +2782,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>112</v>
@@ -2889,7 +2960,7 @@
         <v>82</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2911,7 +2982,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -2949,7 +3020,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>79</v>
@@ -3018,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>83</v>
@@ -3040,7 +3111,7 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>135</v>
@@ -3142,16 +3213,16 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -3166,16 +3237,16 @@
         <v>48</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3190,16 +3261,16 @@
         <v>48</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -3214,16 +3285,16 @@
         <v>48</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E53" s="8">
         <v>66</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -3238,7 +3309,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>99</v>
@@ -3247,7 +3318,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -3262,16 +3333,16 @@
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -3286,7 +3357,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>101</v>
@@ -3295,7 +3366,7 @@
         <v>102</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -3339,13 +3410,13 @@
         <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -3371,7 +3442,7 @@
         <v>98</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -3397,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -3416,7 +3487,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>123</v>
@@ -3438,7 +3509,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>123</v>
@@ -3460,7 +3531,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>123</v>

--- a/Task/Проверки 1.1 в.6.xlsx
+++ b/Task/Проверки 1.1 в.6.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'форма 1.1'!$A$1:$H$63</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -622,18 +622,447 @@
   </si>
   <si>
     <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа должна быть заполнена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если несколько - разделение через точку с запятой</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Не пустое поле. Допускается значение "-". Если поле не заполнено, то сообщение</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>«Укажите количество ЗРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>В графе 10 ОКПО отчитывающейся организации</t>
+  </si>
+  <si>
+    <r>
+      <t>Код операции 11,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 58</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО организации изготовителя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выберите идентификатор, соотвествующий форме собственности ЗРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
+  </si>
+  <si>
+    <t>Код ОКПО НЕ отчитывающейся организации</t>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>выбор из ОКСМ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо выбрать краткое наименование государства из ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо добавить примечание»</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">в графе 15 указывается код ОКПО отчитывающейся организации </t>
+  </si>
+  <si>
+    <t>"Уточните правообладателя ЗРИ"</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt;10Е+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Бк</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Радионуклиды должны быть разделены точкой с запятой</t>
+      <t>46,47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО контрагента</t>
     </r>
     <r>
       <rPr>
@@ -648,10 +1077,182 @@
   </si>
   <si>
     <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 54,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 63, 64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ц</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 97, 98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, 2, 3, 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в графе 14</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать код ОКПО </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
@@ -659,7 +1260,56 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Графа должна быть заполнена</t>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В случае, если зарядка/разрядка осуществлялась силами </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отчитывающейся</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> организации, следует использовать код операции 53</t>
     </r>
     <r>
       <rPr>
@@ -673,26 +1323,137 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Если несколько - разделение через точку с запятой</t>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <t>Не пустое поле. Допускается значение "-". Если поле не заполнено, то сообщение</t>
-  </si>
-  <si>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <t>"прим.". Обязательно примечание к ячейке</t>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">81, 88, </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -702,7 +1463,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>«Укажите количество ЗРИ</t>
+      <t>82, 87</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11, 12, 15, 28, 38, 41, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
     </r>
     <r>
       <rPr>
@@ -712,866 +1489,117 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>, 63, 64, 65, 73, 85, 81, 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 54, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63, 64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Из возможных значений. При кодах операции 41 и 10 должно быть 1. При 66 должно быть 13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При 81 и 85 должно быть 3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»
+«При коде операции 10 вид документа должен быть равен 1.»
+«При коде операции 41 вид документа должен быть равен 1.»
+«При коде операции 66 вид документа должен быть равен 13.»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Номера ЗРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> должны быть разделены точкой с запятой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>В графе 10 ОКПО отчитывающейся организации</t>
-  </si>
-  <si>
-    <r>
-      <t>Код операции 11,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 58</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО организации изготовителя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Выберите идентификатор, соотвествующий форме собственности ЗРИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
-  </si>
-  <si>
-    <t>Код ОКПО НЕ отчитывающейся организации</t>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>выбор из ОКСМ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо выбрать краткое наименование государства из ОКСМ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо добавить примечание»</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При выбранном коде операции траспортирование не производится</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">в графе 15 указывается код ОКПО отчитывающейся организации </t>
-  </si>
-  <si>
-    <t>"Уточните правообладателя ЗРИ"</t>
-  </si>
-  <si>
-    <r>
-      <t>&gt;10Е+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Бк</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>46,47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО контрагента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций 21, 25, 27, 28, 29, 31, 35, 37, 38, 39,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 54,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 63, 64, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ц</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 97, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1, 2, 3, 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>в графе 14</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 19 необходимо указать код ОКПО </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 19 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">В случае, если зарядка/разрядка осуществлялась силами </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> организации, следует использовать код операции 53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <t>"прим.". Обязательно примечание к ячейке</t>
-  </si>
-  <si>
-    <t>Из возможных значений. При коде операции 41 должно быть 1. При 66 должно быть 13. При 81 и 85 должно быть 3.</t>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">81, 88, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>82, 87</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11, 12, 15, 28, 38, 41, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 63, 64, 65, 73, 85, 81, 88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 54, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>63, 64</t>
     </r>
   </si>
 </sst>
@@ -2125,8 +2153,8 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,7 +2214,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2201,7 +2229,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -2384,7 +2412,7 @@
         <v>122</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2406,7 +2434,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -2488,7 +2516,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
@@ -2530,13 +2558,13 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2663,10 +2691,10 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -2683,10 +2711,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -2706,7 +2734,7 @@
         <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -2782,7 +2810,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>112</v>
@@ -2804,10 +2832,10 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>63</v>
@@ -2832,7 +2860,7 @@
         <v>79</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -2938,7 +2966,7 @@
         <v>111</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -2960,7 +2988,7 @@
         <v>82</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2982,7 +3010,7 @@
         <v>82</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -3020,13 +3048,13 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -3048,7 +3076,7 @@
         <v>80</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -3089,14 +3117,14 @@
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>16</v>
       </c>
@@ -3111,10 +3139,10 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -3213,16 +3241,16 @@
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -3237,16 +3265,16 @@
         <v>48</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3261,16 +3289,16 @@
         <v>48</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -3285,16 +3313,16 @@
         <v>48</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E53" s="8">
         <v>66</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -3309,7 +3337,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>99</v>
@@ -3318,7 +3346,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -3333,16 +3361,16 @@
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -3357,7 +3385,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>101</v>
@@ -3366,7 +3394,7 @@
         <v>102</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -3410,13 +3438,13 @@
         <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -3442,7 +3470,7 @@
         <v>98</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -3468,7 +3496,7 @@
         <v>100</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -3487,7 +3515,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>123</v>
@@ -3509,7 +3537,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>123</v>
@@ -3531,7 +3559,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>123</v>

--- a/Task/Проверки 1.1 в.6.xlsx
+++ b/Task/Проверки 1.1 в.6.xlsx
@@ -109,9 +109,6 @@
     <t xml:space="preserve">Проверка сведений в графе 10. Должны быть цифры, длина значения поля: 8 или 14 символов, в т.ч. значимые 0. </t>
   </si>
   <si>
-    <t>«Код используется для предоставления сведений о ЗРИ, произведенных в Российской Федерации»</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверка сведений в графе 10. Должно быть выбрано значение из справочника ОКСМ </t>
   </si>
   <si>
@@ -1595,6 +1592,31 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Код используется для предоставления сведений о ЗРИ, произведенных в Российской Федерации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо ввести ОКПО организации.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2153,8 +2175,8 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2194,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2184,13 +2206,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2214,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2226,17 +2248,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -2340,10 +2362,10 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
@@ -2365,7 +2387,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
@@ -2409,10 +2431,10 @@
         <v>53</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2431,10 +2453,10 @@
         <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -2453,7 +2475,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
@@ -2504,7 +2526,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -2516,13 +2538,13 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -2538,13 +2560,13 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -2558,13 +2580,13 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2573,20 +2595,20 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -2595,20 +2617,20 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -2617,18 +2639,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2637,20 +2659,20 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -2659,20 +2681,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -2681,20 +2703,20 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -2703,18 +2725,18 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -2723,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -2731,10 +2753,10 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -2743,18 +2765,18 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2763,18 +2785,18 @@
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -2783,18 +2805,18 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -2803,20 +2825,20 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -2825,20 +2847,20 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -2847,20 +2869,20 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -2869,20 +2891,20 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -2891,18 +2913,18 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -2911,20 +2933,20 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -2933,18 +2955,18 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -2953,20 +2975,20 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -2975,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>5</v>
@@ -2985,10 +3007,10 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2997,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>5</v>
@@ -3007,10 +3029,10 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -3019,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>5</v>
@@ -3029,10 +3051,10 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -3041,20 +3063,20 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -3063,20 +3085,20 @@
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
         <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -3085,20 +3107,20 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -3107,20 +3129,20 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -3129,20 +3151,20 @@
         <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -3151,18 +3173,18 @@
         <v>17</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -3171,18 +3193,18 @@
         <v>18</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -3191,66 +3213,66 @@
         <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>18</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>18</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>19</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -3259,22 +3281,22 @@
         <v>19</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3283,22 +3305,22 @@
         <v>19</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -3307,22 +3329,22 @@
         <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="8">
         <v>66</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -3331,22 +3353,22 @@
         <v>19</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="G54" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -3355,22 +3377,22 @@
         <v>19</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -3379,22 +3401,22 @@
         <v>19</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="G56" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -3403,22 +3425,22 @@
         <v>19</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -3429,22 +3451,22 @@
         <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -3455,22 +3477,22 @@
         <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -3481,22 +3503,22 @@
         <v>20</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="G60" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -3507,18 +3529,18 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -3529,18 +3551,18 @@
         <v>22</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -3551,18 +3573,18 @@
         <v>23</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>

--- a/Task/Проверки 1.1 в.6.xlsx
+++ b/Task/Проверки 1.1 в.6.xlsx
@@ -154,9 +154,6 @@
     <t>Дата документа должна попадать в отчетный период.</t>
   </si>
   <si>
-    <t>«Дата акта инвентаризации не входит в отчетный период»</t>
-  </si>
-  <si>
     <t>Номер паспорта</t>
   </si>
   <si>
@@ -303,12 +300,6 @@
     <t>«Дата документа должна соответствовать дате операции»</t>
   </si>
   <si>
-    <t>Дата документа должна быть в границах периода предоставления отчета</t>
-  </si>
-  <si>
-    <t>«Дата документа выходит за границы периода»</t>
-  </si>
-  <si>
     <t>ОКПО поставщика/получателя</t>
   </si>
   <si>
@@ -1623,6 +1614,15 @@
       </rPr>
       <t>»</t>
     </r>
+  </si>
+  <si>
+    <t>«Дата акта инвентаризации выходит за границы отчетного периода.»</t>
+  </si>
+  <si>
+    <t>Дата окончания ОП должны быть не позднее 10 рабочих дней после даты документа</t>
+  </si>
+  <si>
+    <t>«Дата окончания отчетного периода превышает дату акта инвентаризации более, чем на 10 рабочих дней.»</t>
   </si>
 </sst>
 </file>
@@ -2174,9 +2174,9 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2248,17 +2248,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>32</v>
@@ -2431,10 +2431,10 @@
         <v>53</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -2456,7 +2456,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -2475,7 +2475,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>30</v>
@@ -2580,13 +2580,13 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2630,7 +2630,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -2639,18 +2639,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2659,20 +2659,20 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -2681,20 +2681,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -2703,20 +2703,20 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -2725,18 +2725,18 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -2745,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -2753,10 +2753,10 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -2765,18 +2765,18 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2785,18 +2785,18 @@
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -2805,18 +2805,18 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -2825,20 +2825,20 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -2847,20 +2847,20 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -2869,20 +2869,20 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -2891,20 +2891,20 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -2913,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>39</v>
@@ -2921,10 +2921,10 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -2933,20 +2933,20 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -2955,18 +2955,18 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -2975,20 +2975,20 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -2997,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>5</v>
@@ -3007,10 +3007,10 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -3019,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>5</v>
@@ -3029,10 +3029,10 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -3041,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>5</v>
@@ -3051,10 +3051,10 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -3063,20 +3063,20 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H41" s="3"/>
     </row>
@@ -3085,20 +3085,20 @@
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
         <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -3107,20 +3107,20 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -3129,20 +3129,20 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -3151,20 +3151,20 @@
         <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -3173,18 +3173,18 @@
         <v>17</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -3193,7 +3193,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>39</v>
@@ -3201,10 +3201,10 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -3213,66 +3213,66 @@
         <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>18</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="11"/>
+      <c r="F49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>19</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -3281,22 +3281,22 @@
         <v>19</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3305,22 +3305,22 @@
         <v>19</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H52" s="3"/>
     </row>
@@ -3329,22 +3329,22 @@
         <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E53" s="8">
         <v>66</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -3353,22 +3353,22 @@
         <v>19</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -3377,22 +3377,22 @@
         <v>19</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H55" s="3"/>
     </row>
@@ -3401,22 +3401,22 @@
         <v>19</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H56" s="3"/>
     </row>
@@ -3425,22 +3425,22 @@
         <v>19</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="G57" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -3451,22 +3451,22 @@
         <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -3477,22 +3477,22 @@
         <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -3503,22 +3503,22 @@
         <v>20</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -3529,18 +3529,18 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -3551,18 +3551,18 @@
         <v>22</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -3573,18 +3573,18 @@
         <v>23</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
